--- a/SFD.xlsx
+++ b/SFD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\SMITHFIELD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A60641-C92B-4BCF-8F19-65E4C3B58A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13994243-1232-481B-8BEA-C628EA7B7981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20120" yWindow="3330" windowWidth="15680" windowHeight="15370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Total Production (in mil)</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>150k hogs purchased by MFV, 28k by HD3</t>
+  </si>
+  <si>
+    <t>Price</t>
   </si>
 </sst>
 </file>
@@ -131,11 +134,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,18 +421,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D15"/>
+  <dimension ref="B2:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -436,60 +441,69 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3">
+        <v>23.56</v>
+      </c>
+      <c r="M3" s="4">
+        <v>45822</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
       <c r="D8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
         <v>13</v>
       </c>
@@ -503,7 +517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8C2F2E-B23A-4AC6-82F3-E248A6C96283}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
